--- a/biology/Histoire de la zoologie et de la botanique/Francesco_Angelo_Facchini/Francesco_Angelo_Facchini.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Francesco_Angelo_Facchini/Francesco_Angelo_Facchini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesco Angelo Facchini est un médecin et un botaniste italien, né le 24 octobre 1788 à Forno di Fiemme (Trentin) et mort le 6 octobre 1852 à San Giovanni di Fassa (Trentin).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce fils de paysan aisé fait ses études élémentaires à Forno, puis à Cavalese et à Carana de 1803 à 1805. Il part alors à Trente pour y étudier les humanités. Afin de perfectionner sa maîtrise de l’allemand et sa formation, il part d’abord à Innsbruck de 1806 à 1808 puis à Munich où il étudie la physique, la philologie. Il y obtient, probablement mais certaines sources le contestent, il obtient une licence de philosophie.
 En 1813, il décide d’étudier la médecine, notamment parce que cela lui permet de faire de la botanique. À partir de décembre 1814, il étudie à Padoue et à Pavie. Son père décède alors. Il consacre son héritage à la poursuite de ses études. Les sources sont incertaines sur le lieu et la date de son obtention de diplôme de docteur en médecine comme de l’exercice de la médecine (Padoue ou Pavie, 1815 ou avant cette date).
